--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13160" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="91">
   <si>
     <t>序号</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>24337000000125830000</t>
   </si>
   <si>
     <t>12</t>
@@ -966,6 +969,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1493,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2388,6 +2394,158 @@
         <v>45</v>
       </c>
       <c r="AA12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="2">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>261.84</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="2">
+        <v>34.04</v>
+      </c>
+      <c r="T13" s="2">
+        <v>295.88</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="2">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>261.84</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="2">
+        <v>34.04</v>
+      </c>
+      <c r="T14" s="2">
+        <v>295.88</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2402,7 +2560,7 @@
   <sheetPr/>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2497,7 +2655,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2566,7 +2724,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2643,7 +2801,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2712,7 +2870,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2789,7 +2947,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2858,7 +3016,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2935,7 +3093,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3004,7 +3162,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3081,7 +3239,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3150,7 +3308,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3227,7 +3385,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3296,7 +3454,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3373,7 +3531,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3442,7 +3600,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3519,7 +3677,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3588,7 +3746,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3665,7 +3823,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3734,7 +3892,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
